--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions Concentrations" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Gas Phase Chemistry" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Stratospheric Heterogeneous " sheetId="7" r:id="rId7"/>
-    <sheet name="7. Tropospheric Heterogeneous C" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Photo Chemistry" sheetId="9" r:id="rId9"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -54,28 +55,37 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>5. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>6. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>7. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Photo Chemistry</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>6. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>7. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>9. Photo Chemistry</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -87,34 +97,61 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the atmospheric chemistry</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -129,7 +166,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -144,7 +181,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -159,9 +196,6 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Troposhere</t>
   </si>
   <si>
@@ -177,7 +211,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -189,7 +223,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -204,7 +238,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -219,7 +253,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -234,7 +268,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.1.9 *</t>
+    <t>2.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -246,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -255,7 +289,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -267,7 +301,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -279,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -291,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -300,7 +334,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
@@ -309,7 +343,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -327,7 +361,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -339,7 +373,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -351,7 +385,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.5 </t>
+    <t xml:space="preserve">2.3.5 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -363,7 +397,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.6 </t>
+    <t xml:space="preserve">2.3.6 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -375,7 +409,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>1.3.7 *</t>
+    <t>2.3.7 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +421,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.8 *</t>
+    <t>2.3.8 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,13 +457,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -441,7 +475,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -453,7 +487,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -465,7 +499,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -477,7 +511,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.5 </t>
+    <t xml:space="preserve">2.4.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -489,7 +523,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.6 </t>
+    <t xml:space="preserve">2.4.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -501,7 +535,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.7 </t>
+    <t xml:space="preserve">2.4.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -513,7 +547,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.8 </t>
+    <t xml:space="preserve">2.4.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -525,7 +559,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.9 </t>
+    <t xml:space="preserve">2.4.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -537,7 +571,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.10 </t>
+    <t xml:space="preserve">2.4.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -549,7 +583,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,7 +592,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
@@ -567,7 +601,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +613,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +625,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +637,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +649,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +658,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -633,7 +667,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -642,7 +676,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +688,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,7 +697,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
@@ -672,7 +706,7 @@
     <t>cmip6.atmoschem.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -681,7 +715,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -693,7 +727,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -705,7 +739,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -717,7 +751,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.6 </t>
+    <t xml:space="preserve">3.2.6 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -729,7 +763,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -738,7 +772,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -747,7 +781,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -756,7 +790,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -768,7 +802,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.4 </t>
+    <t xml:space="preserve">4.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -780,7 +814,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -789,7 +823,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -798,7 +832,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -807,13 +841,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of  in atmoschem model.</t>
@@ -822,7 +856,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.2 </t>
+    <t xml:space="preserve">5.2.2 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -849,7 +883,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.3 </t>
+    <t xml:space="preserve">5.2.3 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -870,7 +904,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.4 </t>
+    <t xml:space="preserve">5.2.4 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -882,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.5 </t>
+    <t xml:space="preserve">5.2.5 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -894,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -906,7 +940,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.7 </t>
+    <t xml:space="preserve">5.2.7 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -918,7 +952,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -927,7 +961,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of to do in atmoschem model.</t>
@@ -936,7 +970,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2 </t>
+    <t xml:space="preserve">5.3.2 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -954,7 +988,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.3 </t>
+    <t xml:space="preserve">5.3.3 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -963,7 +997,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.4 </t>
+    <t xml:space="preserve">5.3.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -972,7 +1006,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.5 </t>
+    <t xml:space="preserve">5.3.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -981,7 +1015,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.6 </t>
+    <t xml:space="preserve">5.3.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -990,7 +1024,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.7 </t>
+    <t xml:space="preserve">5.3.7 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -999,19 +1033,19 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2 </t>
+    <t xml:space="preserve">5.4.2 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1023,7 +1057,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3 </t>
+    <t xml:space="preserve">5.4.3 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1035,13 +1069,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1050,7 +1084,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1059,7 +1093,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1098,7 +1132,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1110,7 +1144,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.5 *</t>
+    <t>6.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1122,7 +1156,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.6 *</t>
+    <t>6.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1134,7 +1168,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.7 *</t>
+    <t>6.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1146,7 +1180,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.8 *</t>
+    <t>6.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1158,7 +1192,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>5.1.9 *</t>
+    <t>6.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1170,7 +1204,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>5.1.10 *</t>
+    <t>6.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1182,7 +1216,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>5.1.11 *</t>
+    <t>6.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1194,7 +1228,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>5.1.12 *</t>
+    <t>6.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1206,7 +1240,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1215,7 +1249,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1224,7 +1258,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1233,7 +1267,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">7.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1245,7 +1279,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">7.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1272,7 +1306,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>7.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1281,7 +1315,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>7.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1293,7 +1327,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>7.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1305,7 +1339,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1314,7 +1348,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1323,7 +1357,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">8.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1332,7 +1366,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">8.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1341,7 +1375,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1374,7 +1408,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1383,13 +1417,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1398,13 +1432,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">9.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1413,7 +1447,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">9.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1422,7 +1456,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>9.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1434,7 +1468,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1443,7 +1477,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.1 </t>
+    <t xml:space="preserve">9.2.1 </t>
   </si>
   <si>
     <t>Overview of photolysis scheme in atmoschem model.</t>
@@ -1452,7 +1486,7 @@
     <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
   </si>
   <si>
-    <t>8.2.2 *</t>
+    <t>9.2.2 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1467,7 +1501,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.3 </t>
+    <t xml:space="preserve">9.2.3 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1483,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,9 +1559,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1552,14 +1585,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1609,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1626,10 +1667,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1641,11 +1679,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,31 +2076,318 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:29" ht="24" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
+      <c r="B27" s="11"/>
+      <c r="AA27" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="24" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AC27</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD167"/>
   <sheetViews>
@@ -2071,938 +2402,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>24</v>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>58</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>66</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>69</v>
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
+      <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>73</v>
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>75</v>
+      <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="7" t="s">
-        <v>76</v>
+      <c r="B46" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>80</v>
+      <c r="A49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>82</v>
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
+      <c r="A53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>86</v>
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>88</v>
+      <c r="A57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="12" t="s">
-        <v>34</v>
+      <c r="B58" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>90</v>
+      <c r="A62" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="7" t="s">
-        <v>91</v>
+      <c r="B63" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>36</v>
+      <c r="A65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="A66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>96</v>
+      <c r="A69" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>98</v>
+      <c r="A70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>102</v>
+      <c r="A73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>104</v>
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>106</v>
+      <c r="A77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>108</v>
+      <c r="A78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>110</v>
+      <c r="A81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>112</v>
+      <c r="A82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>114</v>
+      <c r="A85" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>116</v>
+      <c r="A86" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>118</v>
+      <c r="A89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>120</v>
+      <c r="A90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>122</v>
+      <c r="A93" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>124</v>
+      <c r="A94" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AF95" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>134</v>
+      <c r="A98" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="7"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>136</v>
+      <c r="A101" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>138</v>
+      <c r="A102" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>140</v>
+      <c r="A105" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>142</v>
+      <c r="A106" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>144</v>
+      <c r="A109" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>146</v>
+      <c r="A110" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>148</v>
+      <c r="A113" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>150</v>
+      <c r="A114" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>152</v>
+      <c r="A117" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>154</v>
+      <c r="A118" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>156</v>
+      <c r="A121" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>158</v>
+      <c r="A122" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>160</v>
+      <c r="A125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>162</v>
+      <c r="A126" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>164</v>
+      <c r="A129" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>166</v>
+      <c r="A130" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>168</v>
+      <c r="A133" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>170</v>
+      <c r="A134" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>172</v>
+      <c r="A137" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>174</v>
+      <c r="A138" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>176</v>
+      <c r="A142" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="7" t="s">
-        <v>177</v>
+      <c r="B143" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>36</v>
+      <c r="A145" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>180</v>
+      <c r="A146" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>182</v>
+      <c r="A149" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>184</v>
+      <c r="A150" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="12" t="s">
-        <v>39</v>
+      <c r="B151" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>186</v>
+      <c r="A154" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>188</v>
+      <c r="A155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="12" t="s">
-        <v>34</v>
+      <c r="B156" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>190</v>
+      <c r="A159" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>192</v>
+      <c r="A160" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="12" t="s">
-        <v>34</v>
+      <c r="B161" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>194</v>
+      <c r="A164" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>196</v>
+      <c r="A165" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="12" t="s">
-        <v>34</v>
+      <c r="B166" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -3081,7 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3096,229 +3427,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>198</v>
+      <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>199</v>
+      <c r="B2" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>202</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>205</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>207</v>
+      <c r="A13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>209</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>211</v>
+      <c r="A18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>212</v>
+      <c r="B19" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>215</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>218</v>
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>220</v>
+      <c r="A29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>224</v>
+      <c r="A33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>228</v>
+      <c r="A37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>232</v>
+      <c r="A41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>234</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3343,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -3358,111 +3689,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>236</v>
+      <c r="A1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>237</v>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>240</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>243</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>245</v>
+      <c r="A13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>247</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>249</v>
+      <c r="A17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>251</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>39</v>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3478,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD105"/>
   <sheetViews>
@@ -3493,606 +3824,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>253</v>
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>257</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>260</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>262</v>
+      <c r="A14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>265</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>267</v>
+      <c r="A21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>269</v>
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="12" t="s">
-        <v>45</v>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
+      <c r="A26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>277</v>
+      <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>45</v>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="11"/>
       <c r="AA29" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>283</v>
+      <c r="A31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>285</v>
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="12" t="s">
-        <v>34</v>
+      <c r="B33" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>287</v>
+      <c r="A36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>289</v>
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="12" t="s">
-        <v>34</v>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>291</v>
+      <c r="A41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>293</v>
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>34</v>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>295</v>
+      <c r="A46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>297</v>
+      <c r="A47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>34</v>
+      <c r="B48" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>299</v>
+      <c r="A52" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>300</v>
+      <c r="B53" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>36</v>
+      <c r="A55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>303</v>
+      <c r="A56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>267</v>
+      <c r="A59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>306</v>
+      <c r="A60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>45</v>
+      <c r="B61" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>96</v>
+      <c r="A64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>312</v>
+      <c r="A65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>45</v>
+      <c r="B66" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>283</v>
+      <c r="A69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>315</v>
+      <c r="A70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="12" t="s">
-        <v>34</v>
+      <c r="B71" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>287</v>
+      <c r="A74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>318</v>
+      <c r="A75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="12" t="s">
-        <v>34</v>
+      <c r="B76" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
       <c r="B77" s="11"/>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>291</v>
+      <c r="A79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>321</v>
+      <c r="A80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="12" t="s">
-        <v>34</v>
+      <c r="B81" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>295</v>
+      <c r="A84" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>324</v>
+      <c r="A85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>34</v>
+      <c r="B86" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>326</v>
+      <c r="A90" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="7" t="s">
-        <v>300</v>
+      <c r="B91" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>36</v>
+      <c r="A93" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>328</v>
+      <c r="A94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>330</v>
+      <c r="A97" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>332</v>
+      <c r="A98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="12" t="s">
-        <v>34</v>
+      <c r="B99" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>334</v>
+      <c r="A102" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>336</v>
+      <c r="A103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>34</v>
+      <c r="B104" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4117,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD52"/>
   <sheetViews>
@@ -4132,317 +4463,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>156</v>
+      <c r="A1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>338</v>
+      <c r="B2" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>341</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>344</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>346</v>
+      <c r="A13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>348</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>359</v>
+      <c r="A18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>361</v>
+      <c r="A19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>363</v>
+      <c r="A22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>365</v>
+      <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>367</v>
+      <c r="A26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>369</v>
+      <c r="A27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>371</v>
+      <c r="A30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>373</v>
+      <c r="A31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>375</v>
+      <c r="A34" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>377</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>379</v>
+      <c r="A38" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>381</v>
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>383</v>
+      <c r="A42" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>385</v>
+      <c r="A43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>387</v>
+      <c r="A46" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>389</v>
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>391</v>
+      <c r="A50" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>393</v>
+      <c r="A51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4485,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4500,206 +4831,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>395</v>
+      <c r="A1" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>396</v>
+      <c r="B2" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>399</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>402</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>406</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>410</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>418</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>420</v>
+      <c r="A27" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>422</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>426</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4727,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4742,212 +5073,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>428</v>
+      <c r="A1" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>429</v>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>432</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>435</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>438</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>441</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>452</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>383</v>
+      <c r="A27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>454</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>457</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4970,203 +5301,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -46,7 +46,7 @@
     <t>NORESM2-LM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmospheric Chemistry</t>

--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -8,22 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
-    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
-    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -52,34 +52,31 @@
     <t>Atmospheric Chemistry</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>6. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>7. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>9. Photo Chemistry</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>5. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>6. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>7. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Photo Chemistry</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -100,58 +97,73 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the atmospheric chemistry</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the atmospheric chemistry</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -166,7 +178,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -181,7 +193,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -196,7 +208,7 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposhere</t>
+    <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
@@ -208,10 +220,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -223,7 +235,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -238,7 +250,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -253,7 +265,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -268,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.1.9 *</t>
+    <t>1.1.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -280,7 +292,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -289,7 +301,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -301,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -313,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -325,7 +337,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -334,16 +346,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -361,7 +364,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -373,7 +376,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -385,7 +388,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.5 </t>
+    <t xml:space="preserve">1.3.1.4 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -397,7 +400,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">1.3.1.5 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -409,7 +412,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>2.3.7 *</t>
+    <t>1.3.1.6 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -421,7 +424,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.8 *</t>
+    <t>1.3.1.7 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -457,13 +460,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
+    <t xml:space="preserve">1.3.2.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -475,7 +478,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.3.2.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -487,7 +490,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.3.2.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -499,7 +502,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.3.2.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -511,7 +514,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.5 </t>
+    <t xml:space="preserve">1.3.2.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -523,7 +526,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.6 </t>
+    <t xml:space="preserve">1.3.2.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -535,7 +538,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.7 </t>
+    <t xml:space="preserve">1.3.2.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -547,7 +550,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.8 </t>
+    <t xml:space="preserve">1.3.2.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -559,7 +562,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.9 </t>
+    <t xml:space="preserve">1.3.2.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -571,7 +574,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.10 </t>
+    <t xml:space="preserve">1.3.2.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -583,7 +586,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -592,16 +595,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.4.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -613,7 +607,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -625,7 +619,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -637,7 +631,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -649,7 +643,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -658,7 +652,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -667,7 +661,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -676,7 +670,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -688,7 +682,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -697,16 +691,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -715,7 +700,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -727,7 +712,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -739,7 +724,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -751,7 +736,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.6 </t>
+    <t xml:space="preserve">2.2.1.5 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -763,7 +748,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -772,7 +757,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -781,7 +766,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -790,7 +775,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -802,7 +787,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">3.1.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -814,7 +799,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -823,7 +808,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -832,7 +817,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -841,22 +826,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.2 </t>
+    <t xml:space="preserve">4.2.1.1 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -883,7 +859,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.3 </t>
+    <t xml:space="preserve">4.2.1.2 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -904,7 +880,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.4 </t>
+    <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -916,7 +892,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.5 </t>
+    <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -928,7 +904,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.6 </t>
+    <t xml:space="preserve">4.2.1.5 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -940,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.7 </t>
+    <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -952,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -961,16 +937,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of to do in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2 </t>
+    <t xml:space="preserve">4.3.1.1 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -988,7 +955,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.3 </t>
+    <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -997,7 +964,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.4 </t>
+    <t xml:space="preserve">4.3.1.3 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -1006,7 +973,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.5 </t>
+    <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -1015,7 +982,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.6 </t>
+    <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -1024,7 +991,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.7 </t>
+    <t xml:space="preserve">4.3.1.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -1033,19 +1000,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>4.4.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.1 </t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2 </t>
+    <t xml:space="preserve">4.4.1.1 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1057,7 +1018,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.3 </t>
+    <t xml:space="preserve">4.4.1.2 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1069,13 +1030,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1084,7 +1045,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1093,7 +1054,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1132,7 +1093,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>6.1.4 *</t>
+    <t>5.1.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1144,7 +1105,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>5.1.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1156,7 +1117,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>5.1.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1168,7 +1129,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>5.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1180,7 +1141,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.8 *</t>
+    <t>5.1.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1192,7 +1153,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>6.1.9 *</t>
+    <t>5.1.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1204,7 +1165,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.10 *</t>
+    <t>5.1.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1216,7 +1177,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>6.1.11 *</t>
+    <t>5.1.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1228,7 +1189,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>6.1.12 *</t>
+    <t>5.1.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1240,7 +1201,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1249,7 +1210,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1258,7 +1219,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1267,7 +1228,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">6.1.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1279,7 +1240,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">6.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1306,7 +1267,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>6.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1315,7 +1276,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>6.1.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1327,7 +1288,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>6.1.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1339,7 +1300,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1348,7 +1309,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1357,7 +1318,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">7.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1366,7 +1327,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.3 </t>
+    <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1375,7 +1336,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1408,7 +1369,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1417,13 +1378,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1432,13 +1393,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>8.1.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.1 </t>
+    <t xml:space="preserve">8.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1447,7 +1408,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.2 </t>
+    <t xml:space="preserve">8.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1456,7 +1417,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>9.1.3 *</t>
+    <t>8.1.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1468,7 +1429,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>8.2.1</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1477,16 +1438,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of photolysis scheme in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
-  </si>
-  <si>
-    <t>9.2.2 *</t>
+    <t>8.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1501,7 +1453,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.3 </t>
+    <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1517,7 +1469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,13 +1492,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1565,6 +1523,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1572,21 +1537,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1599,8 +1551,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1650,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1664,31 +1629,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1985,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2076,39 +2044,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2116,97 +2099,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>473</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>476</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>478</v>
+      <c r="A13" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>480</v>
+      <c r="A14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2214,99 +2197,77 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
+      <c r="A21" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>486</v>
+      <c r="A22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11"/>
+      <c r="AA23" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>107</v>
+      <c r="A25" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>488</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,342 +2276,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD167"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>46</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>51</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>53</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>67</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>61</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>84</v>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -2658,83 +2642,83 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
+      <c r="A48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
+      <c r="A52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>97</v>
+      <c r="A56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>99</v>
+      <c r="A57" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>46</v>
+      <c r="B58" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -2742,602 +2726,558 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>48</v>
+      <c r="A65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
+      <c r="A66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
+      <c r="AA67" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>107</v>
+      <c r="A69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>109</v>
+      <c r="A70" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
-      <c r="AA71" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC71" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>113</v>
+      <c r="A73" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>115</v>
+      <c r="A74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>117</v>
+      <c r="A77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>119</v>
+      <c r="A78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>121</v>
+      <c r="A81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>123</v>
+      <c r="A82" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>125</v>
+      <c r="A85" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>127</v>
+      <c r="A86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
+      <c r="A89" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>131</v>
+      <c r="A90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>133</v>
+      <c r="AA91" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI91" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>135</v>
+      <c r="A94" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-      <c r="AA95" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB95" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC95" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD95" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE95" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF95" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG95" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI95" s="5" t="s">
-        <v>61</v>
+      <c r="B95" s="13"/>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>145</v>
+      <c r="A98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>147</v>
+      <c r="A101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>149</v>
+      <c r="A102" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>151</v>
+      <c r="A105" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>153</v>
+      <c r="A106" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>155</v>
+      <c r="A109" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>157</v>
+      <c r="A110" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>159</v>
+      <c r="A113" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>161</v>
+      <c r="A114" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>163</v>
+      <c r="A117" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>165</v>
+      <c r="A118" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>167</v>
+      <c r="A121" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>169</v>
+      <c r="A122" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>171</v>
+      <c r="A125" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>173</v>
+      <c r="A126" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>175</v>
+      <c r="A129" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>177</v>
+      <c r="A130" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>179</v>
+      <c r="A133" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>181</v>
+      <c r="A134" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>185</v>
+      <c r="A138" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>187</v>
+      <c r="A142" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="B143" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="178" customHeight="1">
+      <c r="B144" s="11"/>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>29</v>
+      <c r="A146" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="A147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="B149" s="11"/>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="A151" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="B153" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="B154" s="11"/>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="10" t="s">
-        <v>46</v>
+      <c r="A156" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="A157" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="B158" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="B167" s="11"/>
+      <c r="B159" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="22">
@@ -3356,8 +3296,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>AA71:AC71</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AC67</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
@@ -3365,17 +3308,17 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AI91</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AI95</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
       <formula1>0</formula1>
@@ -3402,9 +3345,6 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3414,97 +3354,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3512,161 +3452,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3683,117 +3601,117 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>251</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>254</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>256</v>
+      <c r="A13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>258</v>
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>260</v>
+      <c r="A17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>262</v>
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>51</v>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3811,75 +3729,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>268</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>271</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3887,561 +3805,495 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB20" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="AC20" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="AD20" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="AE20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="AF20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="AA24" s="5" t="s">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC25" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD25" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AF24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-      <c r="AA29" s="5" t="s">
+      <c r="B29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AC29" s="5" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="C33" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AE29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B48" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="B49" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="B51" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C52" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="53" spans="1:31" ht="24" customHeight="1">
+      <c r="B53" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="AB54" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC54" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="AD54" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="AE54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="13" t="s">
+      <c r="B56" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C57" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="B58" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="AA59" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="B66" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-      <c r="AA62" s="5" t="s">
+      <c r="C67" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AB62" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC62" s="5" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AD62" s="5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="AE62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="C72" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="B73" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="B76" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE67" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="7" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="C86" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>311</v>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B93" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AF24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AE29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AE62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AE67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AF20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AE25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AE54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>AA59:AE59</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4457,323 +4309,323 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>352</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>355</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>357</v>
+      <c r="A13" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>359</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>61</v>
+      <c r="AA16" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>370</v>
+      <c r="A18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>372</v>
+      <c r="A19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>374</v>
+      <c r="A22" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>376</v>
+      <c r="A23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>378</v>
+      <c r="A26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>380</v>
+      <c r="A27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>382</v>
+      <c r="A30" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>384</v>
+      <c r="A31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>386</v>
+      <c r="A34" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>388</v>
+      <c r="A35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>390</v>
+      <c r="A38" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>392</v>
+      <c r="A39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>394</v>
+      <c r="A42" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>396</v>
+      <c r="A43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>398</v>
+      <c r="A46" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>400</v>
+      <c r="A47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>402</v>
+      <c r="A50" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>404</v>
+      <c r="A51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4825,212 +4677,212 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>410</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>413</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>417</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>361</v>
+      <c r="AA16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>421</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>426</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>429</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>431</v>
+      <c r="A27" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>433</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>437</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -5067,218 +4919,218 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>443</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>446</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>449</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>46</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>452</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>460</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>463</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>394</v>
+      <c r="A27" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>465</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>468</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">

--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -208,16 +208,16 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -1087,7 +1087,7 @@
     <t>VOCs</t>
   </si>
   <si>
-    <t>Isoprene</t>
+    <t>isoprene</t>
   </si>
   <si>
     <t>H2O</t>
@@ -2474,7 +2474,7 @@
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2493,12 +2493,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
         <v>61</v>
@@ -2510,16 +2510,13 @@
         <v>63</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
@@ -2538,10 +2535,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>58</v>
       </c>
@@ -2560,12 +2557,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
         <v>74</v>
@@ -2574,7 +2571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
+    <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -3282,7 +3279,7 @@
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AF21</formula1>
+      <formula1>AA21:AE21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AB30</formula1>

--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="491">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -163,6 +163,9 @@
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
+    <t>NorESM Atmospheric Chemistry</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
+    <t>Troposphere</t>
+  </si>
+  <si>
     <t>troposphere</t>
   </si>
   <si>
@@ -235,6 +241,9 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
+    <t>Sulphate pre-cursors and h2o2 replenishment</t>
+  </si>
+  <si>
     <t>1.1.1.6 *</t>
   </si>
   <si>
@@ -826,6 +835,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
+    <t>Anthropogenic and biomasss burning emissions from Lamarque et al. 2009. Volcanic eruptions and vertical distribution as in Dentener et al. 2006 and Seland et al. 2008</t>
+  </si>
+  <si>
     <t>4.2.1</t>
   </si>
   <si>
@@ -844,15 +856,15 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.sources</t>
   </si>
   <si>
+    <t>Sea surface</t>
+  </si>
+  <si>
     <t>Vegetation</t>
   </si>
   <si>
     <t>Soil</t>
   </si>
   <si>
-    <t>Sea surface</t>
-  </si>
-  <si>
     <t>Anthropogenic</t>
   </si>
   <si>
@@ -892,6 +904,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>DMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
@@ -955,6 +970,9 @@
     <t>Volcanos</t>
   </si>
   <si>
+    <t>Other: volcanoes</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
@@ -973,6 +991,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
+    <t>Volcanic SO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
@@ -1030,6 +1051,9 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
+    <t>Nome</t>
+  </si>
+  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1066,6 +1090,9 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.species</t>
   </si>
   <si>
+    <t>Other: sox</t>
+  </si>
+  <si>
     <t>HOx</t>
   </si>
   <si>
@@ -1327,6 +1354,11 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
+    <t>Aqueous phase reaction of SO2 to sulphate_x000D_
+No reaction in ice._x000D_
+O3 prescribed monthly mean concentrations, H2O2 transported but relaxed heavily towards monthly mean concentrations so H2O2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
@@ -1334,6 +1366,9 @@
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
+  </si>
+  <si>
+    <t>SO2</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.4 </t>
@@ -2113,20 +2148,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2137,10 +2172,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -2148,10 +2183,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2159,15 +2194,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -2175,21 +2210,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2197,54 +2232,54 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
@@ -2252,10 +2287,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -2418,14 +2453,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -2433,15 +2470,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -2449,10 +2486,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -2460,15 +2497,15 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -2476,21 +2513,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -2499,29 +2536,31 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -2529,32 +2568,34 @@
         <v>43</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -2565,51 +2606,53 @@
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2617,45 +2660,47 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
+      <c r="B42" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
@@ -2663,10 +2708,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
@@ -2674,10 +2719,10 @@
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -2685,10 +2730,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -2696,10 +2741,10 @@
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -2707,15 +2752,15 @@
         <v>43</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -2723,109 +2768,115 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
       <c r="A66" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="AA67" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11">
+        <v>1800</v>
+      </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -2833,21 +2884,21 @@
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
       <c r="A82" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
@@ -2855,21 +2906,21 @@
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
       <c r="A86" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
@@ -2877,59 +2928,59 @@
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
       <c r="A90" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AD91" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AE91" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF91" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AG91" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AH91" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AI91" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
@@ -2937,21 +2988,21 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
       <c r="A98" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -2959,21 +3010,21 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -2981,21 +3032,21 @@
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
       <c r="A106" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
@@ -3003,21 +3054,21 @@
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -3025,21 +3076,21 @@
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="A113" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -3047,21 +3098,21 @@
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
       <c r="A118" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
@@ -3069,21 +3120,21 @@
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
       <c r="A122" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
@@ -3091,21 +3142,21 @@
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
@@ -3113,21 +3164,21 @@
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="A129" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
@@ -3135,21 +3186,21 @@
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -3157,23 +3208,23 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -3181,15 +3232,15 @@
         <v>43</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
@@ -3197,10 +3248,10 @@
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
@@ -3208,15 +3259,15 @@
         <v>43</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
       <c r="B148" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -3224,10 +3275,10 @@
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="A151" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="24" customHeight="1">
@@ -3235,15 +3286,15 @@
         <v>43</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="B153" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
@@ -3251,10 +3302,10 @@
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -3262,15 +3313,15 @@
         <v>43</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
       <c r="B158" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
@@ -3365,20 +3416,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3389,10 +3440,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3400,10 +3451,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3411,15 +3462,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3427,21 +3478,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3449,20 +3500,20 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3473,10 +3524,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3484,10 +3535,10 @@
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
@@ -3495,10 +3546,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3506,21 +3557,21 @@
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3528,21 +3579,21 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3550,21 +3601,21 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -3605,20 +3656,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3629,10 +3680,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3640,10 +3691,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3651,15 +3702,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3667,21 +3718,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3689,10 +3740,10 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -3700,15 +3751,15 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3726,7 +3777,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD93"/>
+  <dimension ref="A1:XFD94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3740,20 +3791,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3764,10 +3815,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3775,10 +3826,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3786,26 +3837,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3813,21 +3866,21 @@
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -3836,43 +3889,45 @@
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
@@ -3883,27 +3938,27 @@
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
@@ -3911,26 +3966,28 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
@@ -3938,15 +3995,15 @@
         <v>43</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -3954,10 +4011,10 @@
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -3965,15 +4022,15 @@
         <v>43</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -3981,10 +4038,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3992,15 +4049,15 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -4008,34 +4065,34 @@
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="13" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="A52" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
@@ -4044,242 +4101,268 @@
       </c>
     </row>
     <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="AA54" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AC54" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="B55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="24" customHeight="1">
+      <c r="B60" s="11"/>
+      <c r="AA60" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="B65" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="AD54" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="11"/>
-      <c r="AA59" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC59" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD59" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE59" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="B87" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="24" customHeight="1">
-      <c r="B68" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="A71" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="24" customHeight="1">
-      <c r="A72" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="B73" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="24" customHeight="1">
-      <c r="A76" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="B78" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="8" t="s">
-        <v>50</v>
+      <c r="B92" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="B93" s="11"/>
+      <c r="B93" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24" customHeight="1">
+      <c r="B94" s="11" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>AA20:AF20</formula1>
     </dataValidation>
@@ -4289,8 +4372,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
       <formula1>AA54:AE54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>AA59:AE59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>AA55:AE55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
+      <formula1>AA60:AE60</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4313,20 +4399,20 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4337,10 +4423,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
@@ -4348,10 +4434,10 @@
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
@@ -4359,15 +4445,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
@@ -4375,21 +4461,21 @@
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
@@ -4398,55 +4484,57 @@
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="AA16" s="6" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -4454,43 +4542,45 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -4498,21 +4588,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -4520,21 +4610,21 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4542,21 +4632,21 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4564,21 +4654,21 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4586,47 +4676,51 @@
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="11"/>
+      <c r="B52" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -4681,20 +4775,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4705,10 +4799,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4716,10 +4810,10 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
@@ -4727,15 +4821,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
@@ -4743,21 +4837,21 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -4768,32 +4862,32 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -4804,38 +4898,38 @@
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
@@ -4843,21 +4937,21 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -4865,21 +4959,21 @@
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4923,20 +5017,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4947,10 +5041,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4958,10 +5052,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4969,26 +5063,28 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4996,37 +5092,39 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
@@ -5035,77 +5133,81 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>418</v>
+      </c>
       <c r="AA21" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
@@ -5113,25 +5215,27 @@
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="506">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t xml:space="preserve">The chemistry in NorESM2-LM is focused towards the aerosol calculations and has pre-scribed monthly mean oxidant concentrations obtained from CESM2-WACCM calculations. The chemistry use MOZART chemical solver. </t>
+    <t xml:space="preserve">The chemistry in NorESM2-LM is focused towards the aerosol calculations and has pre-scribed monthly mean oxidant concentrations obtained from CESM2-WACCM calculations. The chemistry use MOZART chemical solver. NorESM2 has also been coupled to a version with MOZART tropospheric chemistry, but not for cmip6 calculations</t>
   </si>
   <si>
     <t xml:space="preserve">1.1.1.4 *</t>
@@ -694,6 +694,9 @@
     <t xml:space="preserve">cmip6.atmoschem.grid.name</t>
   </si>
   <si>
+    <t xml:space="preserve">FV19</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
@@ -703,6 +706,9 @@
     <t xml:space="preserve">cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
+    <t xml:space="preserve">The atmosphere model grid is a rectilinear cartesian grid in latitude longitude</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.1.3 *</t>
   </si>
   <si>
@@ -745,6 +751,9 @@
     <t xml:space="preserve">cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
+    <t xml:space="preserve">1.9x2.5 degrees</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
@@ -799,6 +808,9 @@
     <t xml:space="preserve">cmip6.atmoschem.transport.name</t>
   </si>
   <si>
+    <t xml:space="preserve">Finite volume dynamical core</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
@@ -808,6 +820,9 @@
     <t xml:space="preserve">cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
+    <t xml:space="preserve">Transport includes advection (using the CAM6 finite volume dynamical core), diffusion and convective transport.</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1.1.3 *</t>
   </si>
   <si>
@@ -859,7 +874,8 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Anthropogenic and biomasss burning emissions from Lamarque et al. 2009. Volcanic eruptions and vertical distribution as in Dentener et al. 2006 and Seland et al. 2008</t>
+    <t xml:space="preserve">The anthropogenic and biomass burning emissions are those specified for CMIP6.  Biogenic gaseous emissions are calculated online using the MEGANv2.1 algorithms included in CLM.  DMS calculated from prognostic DMS concentration in the ocean calculated from the ocean biogeochemistry model. Continuously outgassing volcanic eruptions and vertical distribution as in Dentener et al. 2006 and Seland et al. 2008 The information below valid for gaseous species. Primary aerosol emissions described in the aerosol emission module.
+ </t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1</t>
@@ -904,6 +920,9 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.surface_emissions.method</t>
   </si>
   <si>
+    <t xml:space="preserve">Interactive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Climatology</t>
   </si>
   <si>
@@ -913,7 +932,7 @@
     <t xml:space="preserve">Spatially uniform concentration</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactive</t>
+    <t xml:space="preserve">CMIP6 climatology and transient</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.3 </t>
@@ -928,9 +947,6 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">DMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
@@ -955,6 +971,9 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
+    <t xml:space="preserve">DMS, monoterpene, isoprene</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
@@ -967,6 +986,9 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
+    <t xml:space="preserve">SO2</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.3.1</t>
   </si>
   <si>
@@ -985,18 +1007,15 @@
     <t xml:space="preserve">cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.sources</t>
   </si>
   <si>
+    <t xml:space="preserve">Volcanos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aircraft</t>
   </si>
   <si>
     <t xml:space="preserve">Lightning</t>
   </si>
   <si>
-    <t xml:space="preserve">Volcanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other: volcanoes</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
@@ -1093,6 +1112,9 @@
     <t xml:space="preserve">cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
+    <t xml:space="preserve">Mozart</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
@@ -1102,6 +1124,9 @@
     <t xml:space="preserve">cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
+    <t xml:space="preserve">NorESM uses a simple gas-phase chemistry for sulphur chemistry and BVOC with prescribed oxidants (OH, HO2, O3, NO3) </t>
+  </si>
+  <si>
     <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
@@ -1378,9 +1403,8 @@
     <t xml:space="preserve">cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">Aqueous phase reaction of SO2 to sulphate_x005F_x000D_
-No reaction in ice._x005F_x000D_
-O3 prescribed monthly mean concentrations, H2O2 transported but relaxed heavily towards monthly mean concentrations so H2O2</t>
+    <t xml:space="preserve">Aqueous phase reaction of SO2 to sulphate from reactions with H2O2 and O3
+O3 prescribed monthly mean concentrations. H2O2 calculated in chemistry scheme</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.3 </t>
@@ -1392,7 +1416,7 @@
     <t xml:space="preserve">cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">SO2</t>
+    <t xml:space="preserve">SO2, H2O2</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.4 </t>
@@ -1474,6 +1498,9 @@
   </si>
   <si>
     <t xml:space="preserve">cmip6.atmoschem.photo_chemistry.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H2O2 + hv</t>
   </si>
   <si>
     <t xml:space="preserve">8.1.1.3 *</t>
@@ -1532,12 +1559,13 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1555,87 +1583,11 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1643,6 +1595,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1650,24 +1603,28 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1675,6 +1632,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1682,6 +1640,7 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1689,6 +1648,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1696,12 +1656,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1709,6 +1671,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1717,62 +1680,28 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1795,11 +1724,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1807,23 +1736,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1847,163 +1761,99 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -2015,7 +1865,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2031,7 +1881,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF337AB7"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2066,7 +1916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="180.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.14"/>
   </cols>
@@ -2217,8 +2067,8 @@
   </sheetPr>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2231,7 +2081,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>188</v>
@@ -2239,12 +2089,12 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -2255,18 +2105,20 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -2277,10 +2129,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2289,14 +2141,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2304,31 +2158,33 @@
         <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>116</v>
@@ -2339,30 +2195,30 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="11"/>
       <c r="AA23" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,10 +2226,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2414,7 +2270,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="6" width="9.14"/>
   </cols>
   <sheetData>
@@ -2517,8 +2373,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B145" activeCellId="0" sqref="B145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2792,7 +2648,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="b">
+      <c r="B39" s="15" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -2816,7 +2673,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15" t="b">
+      <c r="B43" s="15" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3583,8 +3441,8 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3628,11 +3486,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3643,10 +3503,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3655,14 +3515,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
+      <c r="B11" s="16" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3670,31 +3532,33 @@
         <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11"/>
+      <c r="B15" s="15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>42</v>
@@ -3705,21 +3569,23 @@
         <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3727,21 +3593,23 @@
         <v>43</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11"/>
+      <c r="B27" s="11" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3749,21 +3617,23 @@
         <v>82</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11"/>
+      <c r="B31" s="11" t="n">
+        <v>13824</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3771,21 +3641,23 @@
         <v>82</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,14 +3665,16 @@
         <v>87</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="11"/>
+      <c r="B39" s="15" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3838,8 +3712,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3852,20 +3726,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -3876,18 +3750,20 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3898,10 +3774,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3910,14 +3786,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
+      <c r="B11" s="16" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3925,21 +3803,23 @@
         <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11"/>
+      <c r="B15" s="15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3947,10 +3827,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3983,10 +3863,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3999,20 +3879,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4023,18 +3903,20 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -4045,10 +3927,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4057,16 +3939,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
-        <v>276</v>
+      <c r="B11" s="16" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4074,10 +3956,10 @@
     </row>
     <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4085,10 +3967,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4098,496 +3980,550 @@
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="AD21" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11"/>
-      <c r="AA25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB25" s="6" t="s">
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA56" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB56" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="AC25" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AC56" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD56" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE56" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="11" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="AA61" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA62" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8" t="s">
+      <c r="B65" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="8" t="s">
+      <c r="B70" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8" t="s">
+      <c r="B75" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="8" t="s">
+      <c r="B80" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA54" s="6" t="s">
+    <row r="82" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="AB54" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="AA55" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE55" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="11"/>
-      <c r="AA60" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AB60" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC60" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD60" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE60" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="8" t="s">
+      <c r="B89" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
+    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="8" t="s">
+      <c r="B94" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="11"/>
-    </row>
-    <row r="83" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="11"/>
-    </row>
-    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
+    <row r="96" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20:B21" type="list">
       <formula1>AA20:AF20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B25" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B26:B27" type="list">
       <formula1>AA25:AE25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B54" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B56" type="list">
       <formula1>AA54:AE54</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B55" type="list">
-      <formula1>AA55:AE55</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B60" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B61:B62" type="list">
       <formula1>AA60:AE60</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4609,8 +4545,8 @@
   </sheetPr>
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4623,7 +4559,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>176</v>
@@ -4631,12 +4567,12 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -4647,18 +4583,20 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -4669,10 +4607,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4681,14 +4619,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11"/>
+      <c r="B11" s="16" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4696,10 +4636,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4709,34 +4649,34 @@
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AJ16" s="6" t="s">
         <v>69</v>
@@ -4744,10 +4684,10 @@
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4755,21 +4695,23 @@
         <v>82</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4777,10 +4719,10 @@
         <v>82</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4790,10 +4732,10 @@
     </row>
     <row r="26" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4801,21 +4743,23 @@
         <v>82</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4823,10 +4767,10 @@
         <v>82</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4834,10 +4778,10 @@
     </row>
     <row r="34" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4845,21 +4789,23 @@
         <v>82</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4867,10 +4813,10 @@
         <v>82</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4878,10 +4824,10 @@
     </row>
     <row r="42" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4889,21 +4835,23 @@
         <v>87</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11"/>
+      <c r="B44" s="15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4911,10 +4859,10 @@
         <v>87</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4925,10 +4873,10 @@
     </row>
     <row r="50" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4936,16 +4884,15 @@
         <v>87</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="11" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B52" s="15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5022,20 +4969,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5046,10 +4993,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5057,7 +5004,7 @@
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5068,10 +5015,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5084,10 +5031,10 @@
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5095,10 +5042,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5109,21 +5056,21 @@
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5131,10 +5078,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5145,27 +5092,27 @@
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5173,10 +5120,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5184,10 +5131,10 @@
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5195,10 +5142,10 @@
         <v>87</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5206,10 +5153,10 @@
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5217,10 +5164,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5266,8 +5213,8 @@
   </sheetPr>
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5280,20 +5227,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="13" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>42</v>
@@ -5304,10 +5251,10 @@
         <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5315,7 +5262,7 @@
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5326,10 +5273,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5339,15 +5286,15 @@
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5355,10 +5302,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5368,15 +5315,15 @@
     </row>
     <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5384,10 +5331,10 @@
         <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,45 +5344,45 @@
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5443,10 +5390,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5456,10 +5403,10 @@
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5467,10 +5414,10 @@
         <v>87</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5478,10 +5425,10 @@
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5489,10 +5436,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
+++ b/cmip6/models/noresm2-lm/cmip6_ncc_noresm2-lm_atmoschem.xlsx
@@ -1559,7 +1559,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1689,12 +1689,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1762,7 +1756,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1824,10 +1818,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2067,7 +2057,7 @@
   </sheetPr>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3515,7 +3505,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3539,7 +3529,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="b">
+      <c r="B15" s="15" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3672,7 +3663,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="b">
+      <c r="B39" s="15" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3712,7 +3704,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3786,7 +3778,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3810,7 +3802,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="b">
+      <c r="B15" s="15" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3865,7 +3858,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -3939,7 +3932,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4545,7 +4538,7 @@
   </sheetPr>
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -4619,7 +4612,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="178" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4842,7 +4835,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15" t="b">
+      <c r="B44" s="15" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4891,7 +4885,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15" t="b">
+      <c r="B52" s="15" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -4899,7 +4894,7 @@
   <dataValidations count="10">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B16" type="list">
       <formula1>AA16:AJ16</formula1>
-      <formula2>0</formula2>
+      <formula2>4</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B20" type="whole">
       <formula1>0</formula1>
@@ -4914,7 +4909,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B32" type="whole">
-      <formula1>0</formula1>
+      <formula1>e</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B36" type="whole">
@@ -5213,7 +5208,7 @@
   </sheetPr>
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
